--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -342,13 +342,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
@@ -360,6 +363,11 @@
         <v>123123123</v>
       </c>
     </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>1.23123123123123E+20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
